--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Laravel\pemesanan-tiket-pelabuhan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B438F17-6767-43D3-9191-4AC8C31082A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203EA473-6E8C-42BA-B585-3589E95AA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{414E9F30-E9AF-44D9-BBBE-EB1E55B77F04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>tb_user</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,6 +589,9 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
